--- a/src/main/resources/structura_tabele.xlsx
+++ b/src/main/resources/structura_tabele.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="160">
   <si>
     <t>persoane</t>
   </si>
@@ -386,9 +386,6 @@
     </r>
   </si>
   <si>
-    <t>id_prg_sturiu</t>
-  </si>
-  <si>
     <t>detaliu</t>
   </si>
   <si>
@@ -537,12 +534,30 @@
   <si>
     <t>id_Profesor</t>
   </si>
+  <si>
+    <t>an_universitar</t>
+  </si>
+  <si>
+    <t>id_programe_studiu</t>
+  </si>
+  <si>
+    <t>factor_k</t>
+  </si>
+  <si>
+    <t>nota_examen</t>
+  </si>
+  <si>
+    <t>nota_activitate</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -603,8 +618,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -695,8 +716,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -896,21 +929,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -919,7 +941,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -968,7 +990,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -997,8 +1018,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1017,7 +1038,20 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1301,7 +1335,7 @@
   <dimension ref="A1:AH20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1386,12 +1420,12 @@
         <v>4</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AA2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="AB2" s="66" t="s">
+      <c r="AB2" s="65" t="s">
         <v>32</v>
       </c>
       <c r="AC2" s="36"/>
@@ -1436,7 +1470,7 @@
       </c>
       <c r="Z3" s="9"/>
       <c r="AA3" s="15"/>
-      <c r="AB3" s="67"/>
+      <c r="AB3" s="66"/>
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
     </row>
@@ -1475,7 +1509,7 @@
       <c r="AA4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AB4" s="60">
+      <c r="AB4" s="59">
         <v>2</v>
       </c>
       <c r="AC4" s="5"/>
@@ -1519,7 +1553,7 @@
       </c>
       <c r="Z5" s="9"/>
       <c r="AA5" s="9"/>
-      <c r="AB5" s="60"/>
+      <c r="AB5" s="59"/>
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
     </row>
@@ -1559,7 +1593,7 @@
       <c r="AA6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AB6" s="60">
+      <c r="AB6" s="59">
         <v>4</v>
       </c>
       <c r="AC6" s="5"/>
@@ -1613,7 +1647,7 @@
       </c>
       <c r="Z7" s="9"/>
       <c r="AA7" s="9"/>
-      <c r="AB7" s="60"/>
+      <c r="AB7" s="59"/>
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
     </row>
@@ -1658,7 +1692,7 @@
       <c r="AA8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AB8" s="60">
+      <c r="AB8" s="59">
         <v>6</v>
       </c>
       <c r="AC8" s="5"/>
@@ -1777,7 +1811,7 @@
         <v>32</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>42</v>
@@ -1788,10 +1822,10 @@
       <c r="H17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="J17" s="64" t="s">
+      <c r="I17" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" s="63" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1812,8 +1846,8 @@
       <c r="H18" s="9">
         <v>2</v>
       </c>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
@@ -1832,10 +1866,10 @@
       <c r="H19" s="9">
         <v>4</v>
       </c>
-      <c r="I19" s="73" t="s">
-        <v>125</v>
-      </c>
-      <c r="J19" s="74"/>
+      <c r="I19" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="J19" s="73"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
@@ -1854,14 +1888,15 @@
       <c r="H20" s="9">
         <v>6</v>
       </c>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I19:J19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1870,7 +1905,7 @@
   <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="D23" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1955,7 +1990,7 @@
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="60"/>
+      <c r="E8" s="59"/>
       <c r="F8" s="5"/>
       <c r="H8" s="25" t="s">
         <v>45</v>
@@ -1963,7 +1998,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="60"/>
+      <c r="L8" s="59"/>
       <c r="M8" s="5"/>
       <c r="O8" s="25" t="s">
         <v>46</v>
@@ -1971,7 +2006,7 @@
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
-      <c r="S8" s="60"/>
+      <c r="S8" s="59"/>
       <c r="T8" s="5"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
@@ -1987,10 +2022,10 @@
       <c r="D9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="61" t="s">
+      <c r="E9" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="F9" s="62"/>
+      <c r="F9" s="61"/>
       <c r="H9" s="9" t="s">
         <v>50</v>
       </c>
@@ -2003,10 +2038,10 @@
       <c r="K9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="L9" s="61" t="s">
+      <c r="L9" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="M9" s="62"/>
+      <c r="M9" s="61"/>
       <c r="O9" s="9" t="s">
         <v>51</v>
       </c>
@@ -2019,10 +2054,10 @@
       <c r="R9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="S9" s="61" t="s">
+      <c r="S9" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="T9" s="62"/>
+      <c r="T9" s="61"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
@@ -2037,7 +2072,7 @@
       <c r="D10" s="9">
         <v>123</v>
       </c>
-      <c r="E10" s="60"/>
+      <c r="E10" s="59"/>
       <c r="F10" s="5"/>
       <c r="H10" s="9">
         <v>1</v>
@@ -2051,7 +2086,7 @@
       <c r="K10" s="9">
         <v>123</v>
       </c>
-      <c r="L10" s="60"/>
+      <c r="L10" s="59"/>
       <c r="M10" s="5"/>
       <c r="O10" s="9">
         <v>1</v>
@@ -2065,7 +2100,7 @@
       <c r="R10" s="9">
         <v>123</v>
       </c>
-      <c r="S10" s="60"/>
+      <c r="S10" s="59"/>
       <c r="T10" s="5"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
@@ -2081,7 +2116,7 @@
       <c r="D11" s="9">
         <v>124</v>
       </c>
-      <c r="E11" s="60"/>
+      <c r="E11" s="59"/>
       <c r="F11" s="5"/>
       <c r="H11" s="9">
         <v>2</v>
@@ -2095,7 +2130,7 @@
       <c r="K11" s="9">
         <v>124</v>
       </c>
-      <c r="L11" s="60"/>
+      <c r="L11" s="59"/>
       <c r="M11" s="5"/>
       <c r="O11" s="9">
         <v>2</v>
@@ -2109,7 +2144,7 @@
       <c r="R11" s="9">
         <v>124</v>
       </c>
-      <c r="S11" s="60"/>
+      <c r="S11" s="59"/>
       <c r="T11" s="5"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
@@ -2125,7 +2160,7 @@
       <c r="D12" s="9">
         <v>125</v>
       </c>
-      <c r="E12" s="60"/>
+      <c r="E12" s="59"/>
       <c r="F12" s="5"/>
       <c r="H12" s="9">
         <v>3</v>
@@ -2139,7 +2174,7 @@
       <c r="K12" s="9">
         <v>125</v>
       </c>
-      <c r="L12" s="60"/>
+      <c r="L12" s="59"/>
       <c r="M12" s="5"/>
       <c r="O12" s="9">
         <v>3</v>
@@ -2153,7 +2188,7 @@
       <c r="R12" s="9">
         <v>125</v>
       </c>
-      <c r="S12" s="60"/>
+      <c r="S12" s="59"/>
       <c r="T12" s="5"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
@@ -2169,7 +2204,7 @@
       <c r="D13" s="9">
         <v>134</v>
       </c>
-      <c r="E13" s="60"/>
+      <c r="E13" s="59"/>
       <c r="F13" s="5"/>
       <c r="H13" s="9">
         <v>5</v>
@@ -2183,7 +2218,7 @@
       <c r="K13" s="9">
         <v>134</v>
       </c>
-      <c r="L13" s="60"/>
+      <c r="L13" s="59"/>
       <c r="M13" s="5"/>
       <c r="O13" s="9">
         <v>4</v>
@@ -2197,7 +2232,7 @@
       <c r="R13" s="9">
         <v>134</v>
       </c>
-      <c r="S13" s="60"/>
+      <c r="S13" s="59"/>
       <c r="T13" s="5"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
@@ -2213,7 +2248,7 @@
       <c r="D14" s="9">
         <v>231</v>
       </c>
-      <c r="E14" s="60"/>
+      <c r="E14" s="59"/>
       <c r="F14" s="5"/>
       <c r="H14" s="9">
         <v>4</v>
@@ -2227,7 +2262,7 @@
       <c r="K14" s="9">
         <v>231</v>
       </c>
-      <c r="L14" s="60"/>
+      <c r="L14" s="59"/>
       <c r="M14" s="5"/>
       <c r="O14" s="9">
         <v>5</v>
@@ -2241,7 +2276,7 @@
       <c r="R14" s="9">
         <v>231</v>
       </c>
-      <c r="S14" s="60"/>
+      <c r="S14" s="59"/>
       <c r="T14" s="5"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
@@ -2257,7 +2292,7 @@
       <c r="D15" s="9">
         <v>1231</v>
       </c>
-      <c r="E15" s="60"/>
+      <c r="E15" s="59"/>
       <c r="F15" s="5"/>
       <c r="H15" s="9">
         <v>5</v>
@@ -2271,7 +2306,7 @@
       <c r="K15" s="9">
         <v>1231</v>
       </c>
-      <c r="L15" s="60"/>
+      <c r="L15" s="59"/>
       <c r="M15" s="5"/>
       <c r="O15" s="9">
         <v>6</v>
@@ -2285,7 +2320,7 @@
       <c r="R15" s="9">
         <v>1231</v>
       </c>
-      <c r="S15" s="60"/>
+      <c r="S15" s="59"/>
       <c r="T15" s="5"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
@@ -2301,7 +2336,7 @@
       <c r="D16" s="9">
         <v>3123</v>
       </c>
-      <c r="E16" s="60"/>
+      <c r="E16" s="59"/>
       <c r="F16" s="5"/>
       <c r="H16" s="9">
         <v>6</v>
@@ -2315,7 +2350,7 @@
       <c r="K16" s="9">
         <v>3123</v>
       </c>
-      <c r="L16" s="60"/>
+      <c r="L16" s="59"/>
       <c r="M16" s="5"/>
       <c r="O16" s="9">
         <v>7</v>
@@ -2329,7 +2364,7 @@
       <c r="R16" s="9">
         <v>3123</v>
       </c>
-      <c r="S16" s="60"/>
+      <c r="S16" s="59"/>
       <c r="T16" s="5"/>
     </row>
     <row r="17" spans="6:20" x14ac:dyDescent="0.3">
@@ -2346,7 +2381,7 @@
       <c r="K17" s="9">
         <v>2311</v>
       </c>
-      <c r="L17" s="60"/>
+      <c r="L17" s="59"/>
       <c r="M17" s="5"/>
       <c r="O17" s="9">
         <v>8</v>
@@ -2360,7 +2395,7 @@
       <c r="R17" s="9">
         <v>2311</v>
       </c>
-      <c r="S17" s="60"/>
+      <c r="S17" s="59"/>
       <c r="T17" s="5"/>
     </row>
     <row r="18" spans="6:20" x14ac:dyDescent="0.3">
@@ -2379,7 +2414,7 @@
       <c r="R18" s="9">
         <v>1231</v>
       </c>
-      <c r="S18" s="60"/>
+      <c r="S18" s="59"/>
       <c r="T18" s="5"/>
     </row>
     <row r="19" spans="6:20" x14ac:dyDescent="0.3">
@@ -2441,6 +2476,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2449,7 +2485,7 @@
   <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2594,7 +2630,7 @@
       <c r="B21" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D21" s="47" t="s">
+      <c r="D21" s="46" t="s">
         <v>44</v>
       </c>
       <c r="E21" s="15" t="s">
@@ -2609,14 +2645,14 @@
       <c r="H21" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="I21" s="50" t="s">
+      <c r="I21" s="49" t="s">
         <v>107</v>
       </c>
       <c r="K21" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="L21" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M21" s="28" t="s">
         <v>101</v>
@@ -2771,8 +2807,8 @@
       <c r="A33" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="49" t="s">
-        <v>119</v>
+      <c r="B33" s="48" t="s">
+        <v>118</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>63</v>
@@ -2794,13 +2830,13 @@
       <c r="C34" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E34" s="51" t="s">
+      <c r="E34" s="50" t="s">
         <v>94</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="G34" s="48" t="s">
+      <c r="G34" s="47" t="s">
         <v>44</v>
       </c>
       <c r="H34" s="9" t="s">
@@ -2865,7 +2901,7 @@
     </row>
     <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="52" t="s">
+      <c r="A43" s="51" t="s">
         <v>60</v>
       </c>
       <c r="B43" s="29"/>
@@ -2992,14 +3028,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T113"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" customWidth="1"/>
     <col min="10" max="10" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" customWidth="1"/>
     <col min="17" max="17" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3195,8 +3233,8 @@
       <c r="B17" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="56" t="s">
-        <v>114</v>
+      <c r="C17" s="55" t="s">
+        <v>113</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>42</v>
@@ -3210,7 +3248,7 @@
       <c r="I17" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="J17" s="57" t="s">
+      <c r="J17" s="56" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3221,7 +3259,7 @@
       <c r="B18" s="9">
         <v>1</v>
       </c>
-      <c r="C18" s="55"/>
+      <c r="C18" s="54"/>
       <c r="F18" s="9">
         <v>1</v>
       </c>
@@ -3232,7 +3270,7 @@
         <v>2</v>
       </c>
       <c r="I18" s="9"/>
-      <c r="J18" s="58"/>
+      <c r="J18" s="57"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
@@ -3241,7 +3279,7 @@
       <c r="B19" s="9">
         <v>3</v>
       </c>
-      <c r="C19" s="55"/>
+      <c r="C19" s="54"/>
       <c r="F19" s="9">
         <v>2</v>
       </c>
@@ -3252,7 +3290,7 @@
         <v>4</v>
       </c>
       <c r="I19" s="9"/>
-      <c r="J19" s="58"/>
+      <c r="J19" s="57"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
@@ -3261,7 +3299,7 @@
       <c r="B20" s="9">
         <v>5</v>
       </c>
-      <c r="C20" s="55"/>
+      <c r="C20" s="54"/>
       <c r="F20" s="9">
         <v>3</v>
       </c>
@@ -3272,7 +3310,7 @@
         <v>6</v>
       </c>
       <c r="I20" s="9"/>
-      <c r="J20" s="58"/>
+      <c r="J20" s="57"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="25" t="s">
@@ -3313,7 +3351,7 @@
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="T29" s="62"/>
+      <c r="T29" s="61"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="25" t="s">
@@ -3322,24 +3360,24 @@
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="62"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="61"/>
       <c r="H30" s="25" t="s">
         <v>45</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="62"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="61"/>
       <c r="O30" s="25" t="s">
         <v>46</v>
       </c>
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
       <c r="R30" s="9"/>
-      <c r="S30" s="60"/>
-      <c r="T30" s="62"/>
+      <c r="S30" s="59"/>
+      <c r="T30" s="61"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
@@ -3354,10 +3392,10 @@
       <c r="D31" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="61" t="s">
-        <v>115</v>
-      </c>
-      <c r="F31" s="62"/>
+      <c r="E31" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="F31" s="61"/>
       <c r="H31" s="9" t="s">
         <v>50</v>
       </c>
@@ -3370,10 +3408,10 @@
       <c r="K31" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="L31" s="61" t="s">
-        <v>116</v>
-      </c>
-      <c r="M31" s="62"/>
+      <c r="L31" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="M31" s="61"/>
       <c r="O31" s="9" t="s">
         <v>51</v>
       </c>
@@ -3386,10 +3424,10 @@
       <c r="R31" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="S31" s="61" t="s">
-        <v>117</v>
-      </c>
-      <c r="T31" s="62"/>
+      <c r="S31" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="T31" s="61"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
@@ -3404,8 +3442,8 @@
       <c r="D32" s="9">
         <v>123</v>
       </c>
-      <c r="E32" s="60"/>
-      <c r="F32" s="62"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="61"/>
       <c r="H32" s="9">
         <v>1</v>
       </c>
@@ -3418,8 +3456,8 @@
       <c r="K32" s="9">
         <v>123</v>
       </c>
-      <c r="L32" s="60"/>
-      <c r="M32" s="62"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="61"/>
       <c r="O32" s="9">
         <v>1</v>
       </c>
@@ -3432,8 +3470,8 @@
       <c r="R32" s="9">
         <v>123</v>
       </c>
-      <c r="S32" s="60"/>
-      <c r="T32" s="62"/>
+      <c r="S32" s="59"/>
+      <c r="T32" s="61"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
@@ -3448,8 +3486,8 @@
       <c r="D33" s="9">
         <v>124</v>
       </c>
-      <c r="E33" s="60"/>
-      <c r="F33" s="62"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="61"/>
       <c r="H33" s="9">
         <v>2</v>
       </c>
@@ -3462,8 +3500,8 @@
       <c r="K33" s="9">
         <v>124</v>
       </c>
-      <c r="L33" s="60"/>
-      <c r="M33" s="62"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="61"/>
       <c r="O33" s="9">
         <v>2</v>
       </c>
@@ -3476,8 +3514,8 @@
       <c r="R33" s="9">
         <v>124</v>
       </c>
-      <c r="S33" s="60"/>
-      <c r="T33" s="62"/>
+      <c r="S33" s="59"/>
+      <c r="T33" s="61"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
@@ -3492,8 +3530,8 @@
       <c r="D34" s="9">
         <v>125</v>
       </c>
-      <c r="E34" s="60"/>
-      <c r="F34" s="62"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="61"/>
       <c r="H34" s="9">
         <v>3</v>
       </c>
@@ -3506,8 +3544,8 @@
       <c r="K34" s="9">
         <v>125</v>
       </c>
-      <c r="L34" s="60"/>
-      <c r="M34" s="62"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="61"/>
       <c r="O34" s="9">
         <v>3</v>
       </c>
@@ -3520,8 +3558,8 @@
       <c r="R34" s="9">
         <v>125</v>
       </c>
-      <c r="S34" s="60"/>
-      <c r="T34" s="62"/>
+      <c r="S34" s="59"/>
+      <c r="T34" s="61"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
@@ -3536,8 +3574,8 @@
       <c r="D35" s="9">
         <v>134</v>
       </c>
-      <c r="E35" s="60"/>
-      <c r="F35" s="62"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="61"/>
       <c r="H35" s="9">
         <v>5</v>
       </c>
@@ -3550,8 +3588,8 @@
       <c r="K35" s="9">
         <v>134</v>
       </c>
-      <c r="L35" s="60"/>
-      <c r="M35" s="62"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="61"/>
       <c r="O35" s="9">
         <v>4</v>
       </c>
@@ -3564,8 +3602,8 @@
       <c r="R35" s="9">
         <v>134</v>
       </c>
-      <c r="S35" s="60"/>
-      <c r="T35" s="62"/>
+      <c r="S35" s="59"/>
+      <c r="T35" s="61"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
@@ -3580,8 +3618,8 @@
       <c r="D36" s="9">
         <v>231</v>
       </c>
-      <c r="E36" s="60"/>
-      <c r="F36" s="62"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="61"/>
       <c r="H36" s="9">
         <v>4</v>
       </c>
@@ -3594,8 +3632,8 @@
       <c r="K36" s="9">
         <v>231</v>
       </c>
-      <c r="L36" s="60"/>
-      <c r="M36" s="62"/>
+      <c r="L36" s="59"/>
+      <c r="M36" s="61"/>
       <c r="O36" s="9">
         <v>5</v>
       </c>
@@ -3608,8 +3646,8 @@
       <c r="R36" s="9">
         <v>231</v>
       </c>
-      <c r="S36" s="60"/>
-      <c r="T36" s="62"/>
+      <c r="S36" s="59"/>
+      <c r="T36" s="61"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
@@ -3624,8 +3662,8 @@
       <c r="D37" s="9">
         <v>1231</v>
       </c>
-      <c r="E37" s="60"/>
-      <c r="F37" s="62"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="61"/>
       <c r="H37" s="9">
         <v>5</v>
       </c>
@@ -3638,8 +3676,8 @@
       <c r="K37" s="9">
         <v>1231</v>
       </c>
-      <c r="L37" s="60"/>
-      <c r="M37" s="62"/>
+      <c r="L37" s="59"/>
+      <c r="M37" s="61"/>
       <c r="O37" s="9">
         <v>6</v>
       </c>
@@ -3652,8 +3690,8 @@
       <c r="R37" s="9">
         <v>1231</v>
       </c>
-      <c r="S37" s="60"/>
-      <c r="T37" s="62"/>
+      <c r="S37" s="59"/>
+      <c r="T37" s="61"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
@@ -3668,8 +3706,8 @@
       <c r="D38" s="9">
         <v>3123</v>
       </c>
-      <c r="E38" s="60"/>
-      <c r="F38" s="62"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="61"/>
       <c r="H38" s="9">
         <v>6</v>
       </c>
@@ -3682,8 +3720,8 @@
       <c r="K38" s="9">
         <v>3123</v>
       </c>
-      <c r="L38" s="60"/>
-      <c r="M38" s="62"/>
+      <c r="L38" s="59"/>
+      <c r="M38" s="61"/>
       <c r="O38" s="9">
         <v>7</v>
       </c>
@@ -3696,8 +3734,8 @@
       <c r="R38" s="9">
         <v>3123</v>
       </c>
-      <c r="S38" s="60"/>
-      <c r="T38" s="62"/>
+      <c r="S38" s="59"/>
+      <c r="T38" s="61"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="H39" s="9">
@@ -3712,8 +3750,8 @@
       <c r="K39" s="9">
         <v>2311</v>
       </c>
-      <c r="L39" s="60"/>
-      <c r="M39" s="62"/>
+      <c r="L39" s="59"/>
+      <c r="M39" s="61"/>
       <c r="O39" s="9">
         <v>8</v>
       </c>
@@ -3726,14 +3764,14 @@
       <c r="R39" s="9">
         <v>2311</v>
       </c>
-      <c r="S39" s="60"/>
-      <c r="T39" s="62"/>
+      <c r="S39" s="59"/>
+      <c r="T39" s="61"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="J40" s="22"/>
       <c r="K40" s="22"/>
       <c r="L40" s="22"/>
-      <c r="M40" s="62"/>
+      <c r="M40" s="61"/>
       <c r="O40" s="9">
         <v>9</v>
       </c>
@@ -3746,23 +3784,23 @@
       <c r="R40" s="9">
         <v>1231</v>
       </c>
-      <c r="S40" s="60"/>
-      <c r="T40" s="62"/>
+      <c r="S40" s="59"/>
+      <c r="T40" s="61"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="M41" s="62"/>
-      <c r="T41" s="62"/>
+      <c r="M41" s="61"/>
+      <c r="T41" s="61"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="M42" s="62"/>
-      <c r="T42" s="62"/>
+      <c r="M42" s="61"/>
+      <c r="T42" s="61"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A44" s="53" t="s">
+      <c r="A44" s="52" t="s">
         <v>52</v>
       </c>
       <c r="B44" s="10"/>
-      <c r="C44" s="54" t="s">
+      <c r="C44" s="53" t="s">
         <v>85</v>
       </c>
       <c r="D44" s="9"/>
@@ -3784,7 +3822,7 @@
       <c r="C45" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="49" t="s">
+      <c r="D45" s="46" t="s">
         <v>103</v>
       </c>
       <c r="E45" s="15" t="s">
@@ -3924,7 +3962,7 @@
       <c r="B64" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D64" s="47" t="s">
+      <c r="D64" s="46" t="s">
         <v>44</v>
       </c>
       <c r="E64" s="15" t="s">
@@ -3936,17 +3974,17 @@
       <c r="G64" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="H64" s="9" t="s">
+      <c r="H64" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="I64" s="50" t="s">
+      <c r="I64" s="48" t="s">
         <v>107</v>
       </c>
       <c r="K64" t="s">
+        <v>121</v>
+      </c>
+      <c r="L64" s="24" t="s">
         <v>112</v>
-      </c>
-      <c r="L64" s="24" t="s">
-        <v>113</v>
       </c>
       <c r="M64" s="28" t="s">
         <v>101</v>
@@ -4092,7 +4130,7 @@
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A76" s="49" t="s">
+      <c r="A76" s="48" t="s">
         <v>54</v>
       </c>
       <c r="B76" s="8" t="s">
@@ -4112,13 +4150,13 @@
       <c r="B77" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D77" s="51" t="s">
+      <c r="D77" s="50" t="s">
         <v>94</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F77" s="48" t="s">
+      <c r="F77" s="47" t="s">
         <v>44</v>
       </c>
       <c r="G77" s="9" t="s">
@@ -4170,8 +4208,8 @@
       </c>
     </row>
     <row r="113" spans="10:10" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="J113" s="59" t="s">
-        <v>118</v>
+      <c r="J113" s="58" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -4184,15 +4222,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26:K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
     <col min="3" max="3" width="9.88671875" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" customWidth="1"/>
     <col min="7" max="7" width="11.44140625" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" customWidth="1"/>
     <col min="9" max="9" width="11.21875" customWidth="1"/>
@@ -4200,15 +4239,18 @@
     <col min="11" max="11" width="12.6640625" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
     <col min="13" max="13" width="9.77734375" customWidth="1"/>
+    <col min="14" max="14" width="14.77734375" customWidth="1"/>
+    <col min="15" max="15" width="15.77734375" customWidth="1"/>
     <col min="17" max="17" width="10.6640625" customWidth="1"/>
     <col min="18" max="18" width="9.77734375" customWidth="1"/>
+    <col min="24" max="24" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="78"/>
+      <c r="B1" s="77"/>
       <c r="C1" s="5"/>
       <c r="D1" s="25" t="s">
         <v>0</v>
@@ -4227,7 +4269,7 @@
       </c>
       <c r="Q1" s="5"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
@@ -4252,14 +4294,12 @@
       <c r="J2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="79" t="s">
-        <v>114</v>
-      </c>
+      <c r="L2" s="90"/>
       <c r="N2" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O2" s="18" t="s">
         <v>33</v>
@@ -4268,9 +4308,9 @@
         <v>32</v>
       </c>
       <c r="Q2" s="36"/>
-      <c r="R2" s="69"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="R2" s="68"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -4283,14 +4323,14 @@
       <c r="E3" s="9">
         <v>1</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>147</v>
+      <c r="H3" s="78" t="s">
+        <v>146</v>
       </c>
       <c r="J3" s="9">
         <v>1</v>
@@ -4298,9 +4338,7 @@
       <c r="K3" s="9">
         <v>1</v>
       </c>
-      <c r="L3" s="65">
-        <v>1</v>
-      </c>
+      <c r="L3" s="91"/>
       <c r="N3" s="9">
         <v>1</v>
       </c>
@@ -4311,9 +4349,9 @@
         <v>2</v>
       </c>
       <c r="Q3" s="5"/>
-      <c r="R3" s="70"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="R3" s="69"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -4333,7 +4371,7 @@
         <v>22</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J4" s="9">
         <v>2</v>
@@ -4341,9 +4379,7 @@
       <c r="K4" s="9">
         <v>1</v>
       </c>
-      <c r="L4" s="65">
-        <v>3</v>
-      </c>
+      <c r="L4" s="91"/>
       <c r="N4" s="9">
         <v>2</v>
       </c>
@@ -4354,9 +4390,9 @@
         <v>4</v>
       </c>
       <c r="Q4" s="5"/>
-      <c r="R4" s="70"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="R4" s="69"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="9">
@@ -4372,7 +4408,7 @@
         <v>24</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J5" s="9">
         <v>3</v>
@@ -4380,9 +4416,7 @@
       <c r="K5" s="9">
         <v>3</v>
       </c>
-      <c r="L5" s="65">
-        <v>2</v>
-      </c>
+      <c r="L5" s="91"/>
       <c r="N5" s="9">
         <v>3</v>
       </c>
@@ -4393,9 +4427,9 @@
         <v>6</v>
       </c>
       <c r="Q5" s="5"/>
-      <c r="R5" s="70"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="R5" s="69"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="D6" s="9">
         <v>4</v>
       </c>
@@ -4409,28 +4443,26 @@
         <v>26</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="J6" s="71">
+        <v>149</v>
+      </c>
+      <c r="J6" s="24">
         <v>4</v>
       </c>
       <c r="K6" s="9">
         <v>5</v>
       </c>
-      <c r="L6" s="65">
+      <c r="L6" s="91"/>
+      <c r="N6" s="24">
         <v>4</v>
       </c>
-      <c r="N6" s="71">
-        <v>4</v>
-      </c>
-      <c r="O6" s="72" t="s">
-        <v>128</v>
-      </c>
-      <c r="P6" s="62">
+      <c r="O6" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="P6" s="24">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="D7" s="9">
         <v>5</v>
       </c>
@@ -4444,10 +4476,11 @@
         <v>28</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="D8" s="9">
         <v>6</v>
       </c>
@@ -4461,50 +4494,59 @@
         <v>30</v>
       </c>
       <c r="H8" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="D9" s="24">
+        <v>7</v>
+      </c>
+      <c r="E9" s="24">
+        <v>2</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="H9" s="24" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="D9" s="71">
-        <v>7</v>
-      </c>
-      <c r="E9" s="71">
-        <v>2</v>
-      </c>
-      <c r="F9" s="71" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="71" t="s">
-        <v>127</v>
-      </c>
-      <c r="H9" s="71" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="5"/>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="D12" s="75" t="s">
+      <c r="B12" s="86"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="76"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="62"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="61"/>
       <c r="K12" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="87"/>
       <c r="R12" s="25" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>78</v>
       </c>
@@ -4517,19 +4559,19 @@
       <c r="E13" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="H13" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="I13" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="J13" s="62"/>
+      <c r="G13" s="84" t="s">
+        <v>125</v>
+      </c>
+      <c r="H13" s="85" t="s">
+        <v>114</v>
+      </c>
+      <c r="I13" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="J13" s="61"/>
       <c r="K13" s="9" t="s">
         <v>50</v>
       </c>
@@ -4539,14 +4581,14 @@
       <c r="M13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="N13" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="O13" s="61" t="s">
-        <v>116</v>
+      <c r="N13" s="71" t="s">
+        <v>125</v>
+      </c>
+      <c r="O13" s="70" t="s">
+        <v>115</v>
       </c>
       <c r="P13" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R13" s="9" t="s">
         <v>51</v>
@@ -4557,17 +4599,23 @@
       <c r="T13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="U13" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="V13" s="61" t="s">
-        <v>117</v>
+      <c r="U13" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="V13" s="70" t="s">
+        <v>116</v>
       </c>
       <c r="W13" s="24" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+      <c r="X13" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y13" s="80" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>1</v>
       </c>
@@ -4592,7 +4640,7 @@
       <c r="I14" s="9">
         <v>8</v>
       </c>
-      <c r="J14" s="62"/>
+      <c r="J14" s="61"/>
       <c r="K14" s="9">
         <v>1</v>
       </c>
@@ -4605,7 +4653,7 @@
       <c r="N14" s="9">
         <v>1</v>
       </c>
-      <c r="O14" s="60">
+      <c r="O14" s="59">
         <v>1</v>
       </c>
       <c r="P14" s="9">
@@ -4626,11 +4674,14 @@
       <c r="V14" s="9">
         <v>1</v>
       </c>
-      <c r="W14" s="9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="80" t="e">
+        <f>W13*k+X13</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>2</v>
       </c>
@@ -4656,7 +4707,7 @@
       <c r="I15" s="9">
         <v>7</v>
       </c>
-      <c r="J15" s="62"/>
+      <c r="J15" s="61"/>
       <c r="K15" s="9">
         <v>2</v>
       </c>
@@ -4669,7 +4720,7 @@
       <c r="N15" s="9">
         <v>2</v>
       </c>
-      <c r="O15" s="60">
+      <c r="O15" s="59">
         <v>1</v>
       </c>
       <c r="P15" s="9">
@@ -4693,8 +4744,10 @@
       <c r="W15" s="9">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X15" s="9"/>
+      <c r="Y15" s="80"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>3</v>
       </c>
@@ -4719,7 +4772,7 @@
       <c r="I16" s="9">
         <v>9</v>
       </c>
-      <c r="J16" s="62"/>
+      <c r="J16" s="61"/>
       <c r="K16" s="9">
         <v>3</v>
       </c>
@@ -4732,7 +4785,7 @@
       <c r="N16" s="9">
         <v>3</v>
       </c>
-      <c r="O16" s="60">
+      <c r="O16" s="59">
         <v>2</v>
       </c>
       <c r="P16" s="9">
@@ -4756,8 +4809,10 @@
       <c r="W16" s="9">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X16" s="9"/>
+      <c r="Y16" s="80"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="D17" s="9">
         <v>4</v>
       </c>
@@ -4776,7 +4831,7 @@
       <c r="I17" s="9">
         <v>10</v>
       </c>
-      <c r="J17" s="62"/>
+      <c r="J17" s="61"/>
       <c r="K17" s="9">
         <v>4</v>
       </c>
@@ -4789,7 +4844,7 @@
       <c r="N17" s="9">
         <v>4</v>
       </c>
-      <c r="O17" s="60">
+      <c r="O17" s="59">
         <v>2</v>
       </c>
       <c r="P17" s="9">
@@ -4813,20 +4868,22 @@
       <c r="W17" s="9">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X17" s="9"/>
+      <c r="Y17" s="80"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="21"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="62"/>
+      <c r="J18" s="61"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="21"/>
       <c r="N18" s="9"/>
-      <c r="O18" s="60"/>
+      <c r="O18" s="59"/>
       <c r="P18" s="9"/>
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
@@ -4834,20 +4891,22 @@
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
       <c r="W18" s="9"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X18" s="9"/>
+      <c r="Y18" s="80"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="21"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="62"/>
+      <c r="J19" s="61"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="21"/>
       <c r="N19" s="9"/>
-      <c r="O19" s="60"/>
+      <c r="O19" s="59"/>
       <c r="P19" s="9"/>
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
@@ -4855,20 +4914,22 @@
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X19" s="9"/>
+      <c r="Y19" s="80"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="21"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="62"/>
+      <c r="J20" s="61"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="21"/>
       <c r="N20" s="9"/>
-      <c r="O20" s="60"/>
+      <c r="O20" s="59"/>
       <c r="P20" s="9"/>
       <c r="R20" s="9"/>
       <c r="S20" s="9"/>
@@ -4876,21 +4937,23 @@
       <c r="U20" s="9"/>
       <c r="V20" s="9"/>
       <c r="W20" s="9"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X20" s="9"/>
+      <c r="Y20" s="80"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="68"/>
+      <c r="L21" s="67"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
-      <c r="R21" s="68"/>
+      <c r="R21" s="67"/>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
@@ -4899,28 +4962,28 @@
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
-      <c r="R22" s="68"/>
+      <c r="R22" s="67"/>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A25" s="77" t="s">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A25" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="78"/>
-      <c r="E25" s="75" t="s">
+      <c r="B25" s="77"/>
+      <c r="E25" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="76"/>
-      <c r="G25" s="54" t="s">
+      <c r="F25" s="75"/>
+      <c r="G25" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="H25" s="9"/>
-      <c r="I25" s="41" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="H25" s="86"/>
+      <c r="I25" s="89" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="45" t="s">
         <v>4</v>
       </c>
@@ -4934,9 +4997,9 @@
         <v>4</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="H26" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="H26" s="46" t="s">
         <v>103</v>
       </c>
       <c r="I26" s="15" t="s">
@@ -4945,33 +5008,44 @@
       <c r="J26" s="15" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="K26" s="71" t="s">
+        <v>125</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>1</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="9">
-        <v>1</v>
-      </c>
-      <c r="F27" s="9">
-        <v>1</v>
-      </c>
-      <c r="G27" s="9">
-        <v>1</v>
-      </c>
-      <c r="H27" s="9">
-        <v>2</v>
-      </c>
-      <c r="I27" s="9">
+      <c r="E27" s="78">
+        <v>1</v>
+      </c>
+      <c r="F27" s="78">
+        <v>1</v>
+      </c>
+      <c r="G27" s="78">
+        <v>1</v>
+      </c>
+      <c r="H27" s="78">
+        <v>2</v>
+      </c>
+      <c r="I27" s="78">
         <v>4</v>
       </c>
-      <c r="J27" s="9">
-        <v>2</v>
-      </c>
-      <c r="L27" s="5"/>
+      <c r="J27" s="78">
+        <v>2</v>
+      </c>
+      <c r="K27" s="9">
+        <v>1</v>
+      </c>
+      <c r="L27" s="78">
+        <v>0.2</v>
+      </c>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
@@ -4982,7 +5056,7 @@
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>2</v>
       </c>
@@ -5007,7 +5081,10 @@
       <c r="J28" s="9">
         <v>1</v>
       </c>
-      <c r="L28" s="5"/>
+      <c r="K28" s="9">
+        <v>2</v>
+      </c>
+      <c r="L28" s="9"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
@@ -5018,7 +5095,7 @@
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>3</v>
       </c>
@@ -5043,7 +5120,10 @@
       <c r="J29" s="9">
         <v>1</v>
       </c>
-      <c r="L29" s="5"/>
+      <c r="K29" s="9">
+        <v>3</v>
+      </c>
+      <c r="L29" s="9"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
@@ -5054,7 +5134,7 @@
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>4</v>
       </c>
@@ -5079,7 +5159,10 @@
       <c r="J30" s="9">
         <v>1</v>
       </c>
-      <c r="L30" s="5"/>
+      <c r="K30" s="9">
+        <v>4</v>
+      </c>
+      <c r="L30" s="9"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
@@ -5087,10 +5170,10 @@
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
-      <c r="T30" s="62"/>
+      <c r="T30" s="61"/>
       <c r="U30" s="5"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>5</v>
       </c>
@@ -5108,10 +5191,10 @@
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
-      <c r="T31" s="62"/>
+      <c r="T31" s="61"/>
       <c r="U31" s="5"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
@@ -5123,7 +5206,7 @@
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
-      <c r="T32" s="62"/>
+      <c r="T32" s="61"/>
       <c r="U32" s="5"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.3">
@@ -5138,7 +5221,7 @@
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
       <c r="S33" s="5"/>
-      <c r="T33" s="62"/>
+      <c r="T33" s="61"/>
       <c r="U33" s="5"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.3">
@@ -5146,14 +5229,14 @@
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
-      <c r="R34" s="62"/>
+      <c r="R34" s="61"/>
       <c r="S34" s="5"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A35" s="75" t="s">
-        <v>121</v>
-      </c>
-      <c r="B35" s="76"/>
+      <c r="A35" s="74" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" s="75"/>
       <c r="I35" s="40" t="s">
         <v>84</v>
       </c>
@@ -5161,15 +5244,15 @@
       <c r="U35" s="5"/>
       <c r="V35" s="5"/>
       <c r="W35" s="5"/>
-      <c r="X35" s="62"/>
+      <c r="X35" s="61"/>
       <c r="Y35" s="5"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>122</v>
+      <c r="A36" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C36" s="28" t="s">
         <v>101</v>
@@ -5183,21 +5266,21 @@
       </c>
       <c r="I36" s="35"/>
       <c r="J36" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
       <c r="U36" s="5"/>
       <c r="V36" s="5"/>
-      <c r="W36" s="62"/>
+      <c r="W36" s="61"/>
       <c r="X36" s="5"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A37">
+      <c r="A37" s="9">
         <v>1</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C37" s="9">
         <v>1</v>
@@ -5208,8 +5291,8 @@
       <c r="F37" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="H37" s="47" t="s">
-        <v>130</v>
+      <c r="H37" s="46" t="s">
+        <v>129</v>
       </c>
       <c r="I37" s="15" t="s">
         <v>102</v>
@@ -5223,22 +5306,22 @@
       <c r="L37" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="M37" s="50" t="s">
+      <c r="M37" s="49" t="s">
         <v>107</v>
       </c>
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
       <c r="V37" s="5"/>
-      <c r="W37" s="62"/>
+      <c r="W37" s="61"/>
       <c r="X37" s="5"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A38">
+      <c r="A38" s="9">
         <v>2</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C38" s="9">
         <v>1</v>
@@ -5262,7 +5345,7 @@
         <v>97</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M38" s="9">
         <v>1</v>
@@ -5271,15 +5354,15 @@
       <c r="T38" s="5"/>
       <c r="U38" s="5"/>
       <c r="V38" s="5"/>
-      <c r="W38" s="62"/>
+      <c r="W38" s="61"/>
       <c r="X38" s="5"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>3</v>
-      </c>
-      <c r="B39" s="62" t="s">
-        <v>133</v>
+      <c r="A39" s="9">
+        <v>3</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>132</v>
       </c>
       <c r="C39" s="9">
         <v>1</v>
@@ -5303,7 +5386,7 @@
         <v>97</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M39" s="9">
         <v>1</v>
@@ -5312,17 +5395,17 @@
       <c r="T39" s="5"/>
       <c r="U39" s="5"/>
       <c r="V39" s="5"/>
-      <c r="W39" s="62"/>
+      <c r="W39" s="61"/>
       <c r="X39" s="5"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A40">
+      <c r="A40" s="9">
         <v>4</v>
       </c>
-      <c r="B40" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="C40" s="72">
+      <c r="B40" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="24">
         <v>2</v>
       </c>
       <c r="E40" s="9"/>
@@ -5340,7 +5423,7 @@
         <v>97</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M40" s="9">
         <v>1</v>
@@ -5349,17 +5432,17 @@
       <c r="T40" s="5"/>
       <c r="U40" s="5"/>
       <c r="V40" s="5"/>
-      <c r="W40" s="62"/>
+      <c r="W40" s="61"/>
       <c r="X40" s="5"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A41">
+      <c r="A41" s="9">
         <v>5</v>
       </c>
-      <c r="B41" s="62" t="s">
-        <v>135</v>
-      </c>
-      <c r="C41" s="72">
+      <c r="B41" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="24">
         <v>2</v>
       </c>
       <c r="H41" s="9">
@@ -5375,18 +5458,19 @@
         <v>97</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M41" s="9">
         <v>1</v>
       </c>
-      <c r="W41" s="62"/>
+      <c r="W41" s="61"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B42" s="62" t="s">
-        <v>136</v>
-      </c>
-      <c r="C42" s="72">
+      <c r="A42" s="9"/>
+      <c r="B42" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" s="24">
         <v>2</v>
       </c>
       <c r="H42" s="9">
@@ -5402,12 +5486,12 @@
         <v>97</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M42" s="9">
         <v>1</v>
       </c>
-      <c r="W42" s="62"/>
+      <c r="W42" s="61"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="H43" s="9">
@@ -5423,12 +5507,12 @@
         <v>97</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M43" s="9">
         <v>1</v>
       </c>
-      <c r="W43" s="62"/>
+      <c r="W43" s="61"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="H44" s="9"/>
@@ -5455,7 +5539,7 @@
       <c r="M46" s="9"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="26" t="s">
+      <c r="A51" s="25" t="s">
         <v>60</v>
       </c>
       <c r="E51" s="26" t="s">
@@ -5466,21 +5550,24 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="49" t="s">
-        <v>137</v>
+      <c r="A52" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>154</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>63</v>
       </c>
       <c r="D52" s="36"/>
-      <c r="E52" s="51" t="s">
+      <c r="E52" s="50" t="s">
         <v>94</v>
       </c>
       <c r="F52" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="G52" s="48" t="s">
-        <v>130</v>
+      <c r="G52" s="47" t="s">
+        <v>129</v>
       </c>
       <c r="H52" s="9" t="s">
         <v>93</v>
@@ -5490,10 +5577,10 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>1</v>
-      </c>
-      <c r="B53" s="9">
+      <c r="A53" s="9">
+        <v>1</v>
+      </c>
+      <c r="B53" s="81">
         <v>2020</v>
       </c>
       <c r="C53" s="9" t="s">
@@ -5510,17 +5597,17 @@
         <v>1</v>
       </c>
       <c r="H53" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="I53" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="I53" s="9" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>2</v>
-      </c>
-      <c r="B54" s="9">
+      <c r="A54" s="9">
+        <v>2</v>
+      </c>
+      <c r="B54" s="81">
         <v>2021</v>
       </c>
       <c r="C54" s="9" t="s">
@@ -5531,23 +5618,23 @@
         <v>2</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G54" s="9">
         <v>1</v>
       </c>
       <c r="H54" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="I54" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="I54" s="9" t="s">
-        <v>143</v>
-      </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>3</v>
-      </c>
-      <c r="B55" s="9">
+      <c r="A55" s="9">
+        <v>3</v>
+      </c>
+      <c r="B55" s="81">
         <v>2022</v>
       </c>
       <c r="C55" s="9" t="s">
@@ -5564,17 +5651,17 @@
         <v>2</v>
       </c>
       <c r="H55" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="I55" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="I55" s="9" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56">
+      <c r="A56" s="9">
         <v>4</v>
       </c>
-      <c r="B56" s="9">
+      <c r="B56" s="81">
         <v>2023</v>
       </c>
       <c r="C56" s="9" t="s">
@@ -5585,27 +5672,27 @@
         <v>4</v>
       </c>
       <c r="F56" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G56" s="9">
+        <v>2</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="9">
+        <v>5</v>
+      </c>
+      <c r="B57" s="81">
+        <v>2024</v>
+      </c>
+      <c r="C57" s="9" t="s">
         <v>138</v>
-      </c>
-      <c r="G56" s="9">
-        <v>2</v>
-      </c>
-      <c r="H56" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="I56" s="9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>5</v>
-      </c>
-      <c r="B57" s="9">
-        <v>2024</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>139</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="9">
@@ -5618,10 +5705,10 @@
         <v>3</v>
       </c>
       <c r="H57" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="I57" s="9" t="s">
         <v>140</v>
-      </c>
-      <c r="I57" s="9" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -5629,16 +5716,16 @@
         <v>6</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G58" s="9">
         <v>3</v>
       </c>
       <c r="H58" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="I58" s="9" t="s">
         <v>142</v>
-      </c>
-      <c r="I58" s="9" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
@@ -5652,10 +5739,10 @@
         <v>4</v>
       </c>
       <c r="H59" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="I59" s="9" t="s">
         <v>140</v>
-      </c>
-      <c r="I59" s="9" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
@@ -5663,16 +5750,16 @@
         <v>8</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G60" s="9">
         <v>4</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
@@ -5686,10 +5773,10 @@
         <v>5</v>
       </c>
       <c r="H61" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="I61" s="9" t="s">
         <v>140</v>
-      </c>
-      <c r="I61" s="9" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
@@ -5697,16 +5784,16 @@
         <v>10</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G62" s="9">
         <v>5</v>
       </c>
       <c r="H62" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="I62" s="9" t="s">
         <v>142</v>
-      </c>
-      <c r="I62" s="9" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
@@ -5720,10 +5807,10 @@
         <v>6</v>
       </c>
       <c r="H63" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="I63" s="9" t="s">
         <v>140</v>
-      </c>
-      <c r="I63" s="9" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
@@ -5731,21 +5818,21 @@
         <v>12</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G64" s="9">
         <v>6</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86" spans="10:10" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="J86" s="59" t="s">
-        <v>118</v>
+      <c r="J86" s="58" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
